--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Ccl3-Ccr5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,10 +85,16 @@
     <t>Neutro</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Ccl3</t>
   </si>
   <si>
     <t>Ccr5</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>107.506559162604</v>
+        <v>119.8399886666667</v>
       </c>
       <c r="H2">
-        <v>107.506559162604</v>
+        <v>359.519966</v>
       </c>
       <c r="I2">
-        <v>0.03552461465668351</v>
+        <v>0.03880186323141418</v>
       </c>
       <c r="J2">
-        <v>0.03552461465668351</v>
+        <v>0.03880186323141417</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>48.4575390136119</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N2">
-        <v>48.4575390136119</v>
+        <v>0.117908</v>
       </c>
       <c r="O2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P2">
-        <v>0.4047526830301316</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q2">
-        <v>5209.503284841059</v>
+        <v>4.710031127903111</v>
       </c>
       <c r="R2">
-        <v>5209.503284841059</v>
+        <v>42.390280151128</v>
       </c>
       <c r="S2">
-        <v>0.01437868309590419</v>
+        <v>1.124982279236991E-05</v>
       </c>
       <c r="T2">
-        <v>0.01437868309590419</v>
+        <v>1.124982279236991E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>107.506559162604</v>
+        <v>119.8399886666667</v>
       </c>
       <c r="H3">
-        <v>107.506559162604</v>
+        <v>359.519966</v>
       </c>
       <c r="I3">
-        <v>0.03552461465668351</v>
+        <v>0.03880186323141418</v>
       </c>
       <c r="J3">
-        <v>0.03552461465668351</v>
+        <v>0.03880186323141417</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>61.1483113516776</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N3">
-        <v>61.1483113516776</v>
+        <v>182.628158</v>
       </c>
       <c r="O3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P3">
-        <v>0.510755262981907</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q3">
-        <v>6573.844552022458</v>
+        <v>7295.385461644737</v>
       </c>
       <c r="R3">
-        <v>6573.844552022458</v>
+        <v>65658.46915480263</v>
       </c>
       <c r="S3">
-        <v>0.01814438390130529</v>
+        <v>0.01742489410724406</v>
       </c>
       <c r="T3">
-        <v>0.01814438390130529</v>
+        <v>0.01742489410724405</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>107.506559162604</v>
+        <v>119.8399886666667</v>
       </c>
       <c r="H4">
-        <v>107.506559162604</v>
+        <v>359.519966</v>
       </c>
       <c r="I4">
-        <v>0.03552461465668351</v>
+        <v>0.03880186323141418</v>
       </c>
       <c r="J4">
-        <v>0.03552461465668351</v>
+        <v>0.03880186323141417</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.1155030568557</v>
+        <v>63.712864</v>
       </c>
       <c r="N4">
-        <v>10.1155030568557</v>
+        <v>191.138592</v>
       </c>
       <c r="O4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P4">
-        <v>0.08449205398796139</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q4">
-        <v>1087.482927841359</v>
+        <v>7635.348899680875</v>
       </c>
       <c r="R4">
-        <v>1087.482927841359</v>
+        <v>68718.14009712786</v>
       </c>
       <c r="S4">
-        <v>0.003001547659474028</v>
+        <v>0.01823689053145751</v>
       </c>
       <c r="T4">
-        <v>0.003001547659474028</v>
+        <v>0.01823689053145751</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>166.800346282478</v>
+        <v>119.8399886666667</v>
       </c>
       <c r="H5">
-        <v>166.800346282478</v>
+        <v>359.519966</v>
       </c>
       <c r="I5">
-        <v>0.05511773488465981</v>
+        <v>0.03880186323141418</v>
       </c>
       <c r="J5">
-        <v>0.05511773488465981</v>
+        <v>0.03880186323141417</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>48.4575390136119</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N5">
-        <v>48.4575390136119</v>
+        <v>32.792867</v>
       </c>
       <c r="O5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P5">
-        <v>0.4047526830301316</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q5">
-        <v>8082.734287467152</v>
+        <v>1309.965603209169</v>
       </c>
       <c r="R5">
-        <v>8082.734287467152</v>
+        <v>11789.69042888252</v>
       </c>
       <c r="S5">
-        <v>0.02230905107710954</v>
+        <v>0.003128828769920235</v>
       </c>
       <c r="T5">
-        <v>0.02230905107710954</v>
+        <v>0.003128828769920234</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>166.800346282478</v>
+        <v>167.5040133333333</v>
       </c>
       <c r="H6">
-        <v>166.800346282478</v>
+        <v>502.51204</v>
       </c>
       <c r="I6">
-        <v>0.05511773488465981</v>
+        <v>0.05423454965563423</v>
       </c>
       <c r="J6">
-        <v>0.05511773488465981</v>
+        <v>0.05423454965563423</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>61.1483113516776</v>
+        <v>0.03930266666666667</v>
       </c>
       <c r="N6">
-        <v>61.1483113516776</v>
+        <v>0.117908</v>
       </c>
       <c r="O6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="P6">
-        <v>0.510755262981907</v>
+        <v>0.0002899299635503584</v>
       </c>
       <c r="Q6">
-        <v>10199.5595080486</v>
+        <v>6.583354401368888</v>
       </c>
       <c r="R6">
-        <v>10199.5595080486</v>
+        <v>59.25018961231999</v>
       </c>
       <c r="S6">
-        <v>0.02815167317598145</v>
+        <v>1.572422100482814E-05</v>
       </c>
       <c r="T6">
-        <v>0.02815167317598145</v>
+        <v>1.572422100482814E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>166.800346282478</v>
+        <v>167.5040133333333</v>
       </c>
       <c r="H7">
-        <v>166.800346282478</v>
+        <v>502.51204</v>
       </c>
       <c r="I7">
-        <v>0.05511773488465981</v>
+        <v>0.05423454965563423</v>
       </c>
       <c r="J7">
-        <v>0.05511773488465981</v>
+        <v>0.05423454965563423</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.1155030568557</v>
+        <v>60.87605266666667</v>
       </c>
       <c r="N7">
-        <v>10.1155030568557</v>
+        <v>182.628158</v>
       </c>
       <c r="O7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="P7">
-        <v>0.08449205398796139</v>
+        <v>0.4490736437918471</v>
       </c>
       <c r="Q7">
-        <v>1687.269412704995</v>
+        <v>10196.98313755804</v>
       </c>
       <c r="R7">
-        <v>1687.269412704995</v>
+        <v>91772.84823802231</v>
       </c>
       <c r="S7">
-        <v>0.004657010631568819</v>
+        <v>0.02435530683326553</v>
       </c>
       <c r="T7">
-        <v>0.004657010631568819</v>
+        <v>0.02435530683326553</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2751.94855718463</v>
+        <v>167.5040133333333</v>
       </c>
       <c r="H8">
-        <v>2751.94855718463</v>
+        <v>502.51204</v>
       </c>
       <c r="I8">
-        <v>0.9093576504586567</v>
+        <v>0.05423454965563423</v>
       </c>
       <c r="J8">
-        <v>0.9093576504586567</v>
+        <v>0.05423454965563423</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>48.4575390136119</v>
+        <v>63.712864</v>
       </c>
       <c r="N8">
-        <v>48.4575390136119</v>
+        <v>191.138592</v>
       </c>
       <c r="O8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="P8">
-        <v>0.4047526830301316</v>
+        <v>0.470000381752102</v>
       </c>
       <c r="Q8">
-        <v>133352.6545732272</v>
+        <v>10672.16042096085</v>
       </c>
       <c r="R8">
-        <v>133352.6545732272</v>
+        <v>96049.44378864768</v>
       </c>
       <c r="S8">
-        <v>0.3680649488571179</v>
+        <v>0.02549025904230142</v>
       </c>
       <c r="T8">
-        <v>0.3680649488571179</v>
+        <v>0.02549025904230142</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2751.94855718463</v>
+        <v>167.5040133333333</v>
       </c>
       <c r="H9">
-        <v>2751.94855718463</v>
+        <v>502.51204</v>
       </c>
       <c r="I9">
-        <v>0.9093576504586567</v>
+        <v>0.05423454965563423</v>
       </c>
       <c r="J9">
-        <v>0.9093576504586567</v>
+        <v>0.05423454965563423</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>61.1483113516776</v>
+        <v>10.93095566666667</v>
       </c>
       <c r="N9">
-        <v>61.1483113516776</v>
+        <v>32.792867</v>
       </c>
       <c r="O9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250054</v>
       </c>
       <c r="P9">
-        <v>0.510755262981907</v>
+        <v>0.08063604449250053</v>
       </c>
       <c r="Q9">
-        <v>168277.0071985257</v>
+        <v>1830.978943735409</v>
       </c>
       <c r="R9">
-        <v>168277.0071985257</v>
+        <v>16478.81049361868</v>
       </c>
       <c r="S9">
-        <v>0.4644592059046203</v>
+        <v>0.004373259559062452</v>
       </c>
       <c r="T9">
-        <v>0.4644592059046203</v>
+        <v>0.004373259559062451</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2801.031738</v>
+      </c>
+      <c r="H10">
+        <v>8403.095214000001</v>
+      </c>
+      <c r="I10">
+        <v>0.906919732002253</v>
+      </c>
+      <c r="J10">
+        <v>0.906919732002253</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.117908</v>
+      </c>
+      <c r="O10">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P10">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q10">
+        <v>110.088016721368</v>
+      </c>
+      <c r="R10">
+        <v>990.7921504923121</v>
+      </c>
+      <c r="S10">
+        <v>0.0002629432048425141</v>
+      </c>
+      <c r="T10">
+        <v>0.0002629432048425141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2801.031738</v>
+      </c>
+      <c r="H11">
+        <v>8403.095214000001</v>
+      </c>
+      <c r="I11">
+        <v>0.906919732002253</v>
+      </c>
+      <c r="J11">
+        <v>0.906919732002253</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N11">
+        <v>182.628158</v>
+      </c>
+      <c r="O11">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P11">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q11">
+        <v>170515.7556034929</v>
+      </c>
+      <c r="R11">
+        <v>1534641.800431436</v>
+      </c>
+      <c r="S11">
+        <v>0.4072737486769772</v>
+      </c>
+      <c r="T11">
+        <v>0.4072737486769771</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2801.031738</v>
+      </c>
+      <c r="H12">
+        <v>8403.095214000001</v>
+      </c>
+      <c r="I12">
+        <v>0.906919732002253</v>
+      </c>
+      <c r="J12">
+        <v>0.906919732002253</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>63.712864</v>
+      </c>
+      <c r="N12">
+        <v>191.138592</v>
+      </c>
+      <c r="O12">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P12">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q12">
+        <v>178461.7541828777</v>
+      </c>
+      <c r="R12">
+        <v>1606155.787645899</v>
+      </c>
+      <c r="S12">
+        <v>0.4262526202595729</v>
+      </c>
+      <c r="T12">
+        <v>0.4262526202595729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2801.031738</v>
+      </c>
+      <c r="H13">
+        <v>8403.095214000001</v>
+      </c>
+      <c r="I13">
+        <v>0.906919732002253</v>
+      </c>
+      <c r="J13">
+        <v>0.906919732002253</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N13">
+        <v>32.792867</v>
+      </c>
+      <c r="O13">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P13">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q13">
+        <v>30617.95374900429</v>
+      </c>
+      <c r="R13">
+        <v>275561.5837410386</v>
+      </c>
+      <c r="S13">
+        <v>0.07313041986086034</v>
+      </c>
+      <c r="T13">
+        <v>0.07313041986086033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.135447</v>
+      </c>
+      <c r="H14">
+        <v>0.406341</v>
+      </c>
+      <c r="I14">
+        <v>4.385511069868112E-05</v>
+      </c>
+      <c r="J14">
+        <v>4.385511069868111E-05</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.03930266666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.117908</v>
+      </c>
+      <c r="O14">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="P14">
+        <v>0.0002899299635503584</v>
+      </c>
+      <c r="Q14">
+        <v>0.005323428292</v>
+      </c>
+      <c r="R14">
+        <v>0.047910854628</v>
+      </c>
+      <c r="S14">
+        <v>1.271491064636555E-08</v>
+      </c>
+      <c r="T14">
+        <v>1.271491064636555E-08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.135447</v>
+      </c>
+      <c r="H15">
+        <v>0.406341</v>
+      </c>
+      <c r="I15">
+        <v>4.385511069868112E-05</v>
+      </c>
+      <c r="J15">
+        <v>4.385511069868111E-05</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>60.87605266666667</v>
+      </c>
+      <c r="N15">
+        <v>182.628158</v>
+      </c>
+      <c r="O15">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="P15">
+        <v>0.4490736437918471</v>
+      </c>
+      <c r="Q15">
+        <v>8.245478705542002</v>
+      </c>
+      <c r="R15">
+        <v>74.209308349878</v>
+      </c>
+      <c r="S15">
+        <v>1.969417436035155E-05</v>
+      </c>
+      <c r="T15">
+        <v>1.969417436035154E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.135447</v>
+      </c>
+      <c r="H16">
+        <v>0.406341</v>
+      </c>
+      <c r="I16">
+        <v>4.385511069868112E-05</v>
+      </c>
+      <c r="J16">
+        <v>4.385511069868111E-05</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>63.712864</v>
+      </c>
+      <c r="N16">
+        <v>191.138592</v>
+      </c>
+      <c r="O16">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="P16">
+        <v>0.470000381752102</v>
+      </c>
+      <c r="Q16">
+        <v>8.629716290208002</v>
+      </c>
+      <c r="R16">
+        <v>77.66744661187201</v>
+      </c>
+      <c r="S16">
+        <v>2.061191877016082E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.061191877016081E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>2751.94855718463</v>
-      </c>
-      <c r="H10">
-        <v>2751.94855718463</v>
-      </c>
-      <c r="I10">
-        <v>0.9093576504586567</v>
-      </c>
-      <c r="J10">
-        <v>0.9093576504586567</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="N10">
-        <v>10.1155030568557</v>
-      </c>
-      <c r="O10">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="P10">
-        <v>0.08449205398796139</v>
-      </c>
-      <c r="Q10">
-        <v>27837.34404251075</v>
-      </c>
-      <c r="R10">
-        <v>27837.34404251075</v>
-      </c>
-      <c r="S10">
-        <v>0.07683349569691854</v>
-      </c>
-      <c r="T10">
-        <v>0.07683349569691854</v>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.135447</v>
+      </c>
+      <c r="H17">
+        <v>0.406341</v>
+      </c>
+      <c r="I17">
+        <v>4.385511069868112E-05</v>
+      </c>
+      <c r="J17">
+        <v>4.385511069868111E-05</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10.93095566666667</v>
+      </c>
+      <c r="N17">
+        <v>32.792867</v>
+      </c>
+      <c r="O17">
+        <v>0.08063604449250054</v>
+      </c>
+      <c r="P17">
+        <v>0.08063604449250053</v>
+      </c>
+      <c r="Q17">
+        <v>1.480565152183</v>
+      </c>
+      <c r="R17">
+        <v>13.325086369647</v>
+      </c>
+      <c r="S17">
+        <v>3.536302657522387E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.536302657522386E-06</v>
       </c>
     </row>
   </sheetData>
